--- a/data/misused_bar_graph_figures/nat_nanotechnol/log/annotation.xlsx
+++ b/data/misused_bar_graph_figures/nat_nanotechnol/log/annotation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tlin/Files/2023-2028-UC_Berkeley/_landry-lab/research-project/local/misused-bar-graphs/data/misused_bar_graph_figures/nat_nanotechnol/log/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21FBD136-0E7E-1E48-8CE6-7797B25C690F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F4FF6ED-4BC8-7F41-84B4-36F61143A484}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19600" yWindow="500" windowWidth="18800" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="11060" windowWidth="37620" windowHeight="10540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="56">
   <si>
     <t>DOI</t>
   </si>
@@ -116,13 +116,85 @@
   </si>
   <si>
     <t>Average lung luminescence (photons s-1 cm-2 sr-1)</t>
+  </si>
+  <si>
+    <t>Absolute/Relative</t>
+  </si>
+  <si>
+    <t>Measurement Type</t>
+  </si>
+  <si>
+    <t>Physical quantity I</t>
+  </si>
+  <si>
+    <t>Physical quantity II</t>
+  </si>
+  <si>
+    <t>Log transformation</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Absolute</t>
+  </si>
+  <si>
+    <t>Measured value</t>
+  </si>
+  <si>
+    <t>Colony count</t>
+  </si>
+  <si>
+    <t>Count</t>
+  </si>
+  <si>
+    <t>Titer</t>
+  </si>
+  <si>
+    <t>Concentration</t>
+  </si>
+  <si>
+    <t>Relative</t>
+  </si>
+  <si>
+    <t>Ratio</t>
+  </si>
+  <si>
+    <t>Percentage</t>
+  </si>
+  <si>
+    <t>Cell percentage</t>
+  </si>
+  <si>
+    <t>Calculated value</t>
+  </si>
+  <si>
+    <t>Bioluminescence</t>
+  </si>
+  <si>
+    <t>Relative luminescence</t>
+  </si>
+  <si>
+    <t>Radiant efficiency</t>
+  </si>
+  <si>
+    <t>Diffusivity</t>
+  </si>
+  <si>
+    <t>Elastic modulus</t>
+  </si>
+  <si>
+    <t>Modulus</t>
+  </si>
+  <si>
+    <t>Impedance</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -143,6 +215,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -152,7 +232,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -186,19 +266,34 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -501,18 +596,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:J20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="176" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="176" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="24.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="39.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" ht="48" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -528,8 +627,23 @@
       <c r="E1" s="2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F1" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -545,8 +659,23 @@
       <c r="E2" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H2" t="s">
+        <v>40</v>
+      </c>
+      <c r="I2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -562,8 +691,23 @@
       <c r="E3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G3" t="s">
+        <v>39</v>
+      </c>
+      <c r="H3" t="s">
+        <v>40</v>
+      </c>
+      <c r="I3" t="s">
+        <v>41</v>
+      </c>
+      <c r="J3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -579,8 +723,23 @@
       <c r="E4" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F4" t="s">
+        <v>38</v>
+      </c>
+      <c r="G4" t="s">
+        <v>39</v>
+      </c>
+      <c r="H4" t="s">
+        <v>40</v>
+      </c>
+      <c r="I4" t="s">
+        <v>41</v>
+      </c>
+      <c r="J4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -596,8 +755,23 @@
       <c r="E5" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F5" t="s">
+        <v>38</v>
+      </c>
+      <c r="G5" t="s">
+        <v>39</v>
+      </c>
+      <c r="H5" t="s">
+        <v>42</v>
+      </c>
+      <c r="I5" t="s">
+        <v>43</v>
+      </c>
+      <c r="J5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -613,8 +787,23 @@
       <c r="E6" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G6" t="s">
+        <v>39</v>
+      </c>
+      <c r="H6" t="s">
+        <v>42</v>
+      </c>
+      <c r="I6" t="s">
+        <v>43</v>
+      </c>
+      <c r="J6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -630,8 +819,23 @@
       <c r="E7" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F7" t="s">
+        <v>38</v>
+      </c>
+      <c r="G7" t="s">
+        <v>39</v>
+      </c>
+      <c r="H7" t="s">
+        <v>42</v>
+      </c>
+      <c r="I7" t="s">
+        <v>43</v>
+      </c>
+      <c r="J7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -647,8 +851,23 @@
       <c r="E8" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F8" t="s">
+        <v>38</v>
+      </c>
+      <c r="G8" t="s">
+        <v>39</v>
+      </c>
+      <c r="H8" t="s">
+        <v>42</v>
+      </c>
+      <c r="I8" t="s">
+        <v>43</v>
+      </c>
+      <c r="J8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -664,8 +883,23 @@
       <c r="E9" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F9" t="s">
+        <v>44</v>
+      </c>
+      <c r="G9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" t="s">
+        <v>45</v>
+      </c>
+      <c r="I9" t="s">
+        <v>45</v>
+      </c>
+      <c r="J9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -681,8 +915,23 @@
       <c r="E10" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F10" t="s">
+        <v>44</v>
+      </c>
+      <c r="G10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10" t="s">
+        <v>45</v>
+      </c>
+      <c r="I10" t="s">
+        <v>45</v>
+      </c>
+      <c r="J10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -698,8 +947,23 @@
       <c r="E11" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F11" t="s">
+        <v>44</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>46</v>
+      </c>
+      <c r="J11" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -715,8 +979,23 @@
       <c r="E12" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F12" t="s">
+        <v>44</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>46</v>
+      </c>
+      <c r="J12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -732,8 +1011,23 @@
       <c r="E13" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F13" t="s">
+        <v>44</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>46</v>
+      </c>
+      <c r="J13" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -749,8 +1043,23 @@
       <c r="E14" s="3" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F14" t="s">
+        <v>44</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>46</v>
+      </c>
+      <c r="J14" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>15</v>
       </c>
@@ -766,8 +1075,23 @@
       <c r="E15" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F15" t="s">
+        <v>38</v>
+      </c>
+      <c r="G15" t="s">
+        <v>39</v>
+      </c>
+      <c r="H15" t="s">
+        <v>55</v>
+      </c>
+      <c r="I15" t="s">
+        <v>55</v>
+      </c>
+      <c r="J15" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -783,8 +1107,23 @@
       <c r="E16" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F16" t="s">
+        <v>38</v>
+      </c>
+      <c r="G16" t="s">
+        <v>39</v>
+      </c>
+      <c r="H16" t="s">
+        <v>52</v>
+      </c>
+      <c r="I16" t="s">
+        <v>52</v>
+      </c>
+      <c r="J16" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -800,8 +1139,23 @@
       <c r="E17" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F17" t="s">
+        <v>38</v>
+      </c>
+      <c r="G17" t="s">
+        <v>39</v>
+      </c>
+      <c r="H17" t="s">
+        <v>53</v>
+      </c>
+      <c r="I17" t="s">
+        <v>54</v>
+      </c>
+      <c r="J17" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -817,8 +1171,23 @@
       <c r="E18" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F18" t="s">
+        <v>44</v>
+      </c>
+      <c r="G18" t="s">
+        <v>48</v>
+      </c>
+      <c r="H18" t="s">
+        <v>49</v>
+      </c>
+      <c r="I18" t="s">
+        <v>50</v>
+      </c>
+      <c r="J18" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>16</v>
       </c>
@@ -834,8 +1203,23 @@
       <c r="E19" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F19" t="s">
+        <v>38</v>
+      </c>
+      <c r="G19" t="s">
+        <v>39</v>
+      </c>
+      <c r="H19" t="s">
+        <v>49</v>
+      </c>
+      <c r="I19" t="s">
+        <v>51</v>
+      </c>
+      <c r="J19" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>16</v>
       </c>
@@ -850,6 +1234,21 @@
       </c>
       <c r="E20" t="s">
         <v>31</v>
+      </c>
+      <c r="F20" t="s">
+        <v>38</v>
+      </c>
+      <c r="G20" t="s">
+        <v>39</v>
+      </c>
+      <c r="H20" t="s">
+        <v>49</v>
+      </c>
+      <c r="I20" t="s">
+        <v>51</v>
+      </c>
+      <c r="J20" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/data/misused_bar_graph_figures/nat_nanotechnol/log/annotation.xlsx
+++ b/data/misused_bar_graph_figures/nat_nanotechnol/log/annotation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tlin/Files/2023-2028-UC_Berkeley/_landry-lab/research-project/local/misused-bar-graphs/data/misused_bar_graph_figures/nat_nanotechnol/log/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F4FF6ED-4BC8-7F41-84B4-36F61143A484}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBCEDAC2-C5E1-E146-8A05-863D6E36B603}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="11060" windowWidth="37620" windowHeight="10540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -175,9 +175,6 @@
     <t>Relative luminescence</t>
   </si>
   <si>
-    <t>Radiant efficiency</t>
-  </si>
-  <si>
     <t>Diffusivity</t>
   </si>
   <si>
@@ -188,6 +185,9 @@
   </si>
   <si>
     <t>Impedance</t>
+  </si>
+  <si>
+    <t>Radiance</t>
   </si>
 </sst>
 </file>
@@ -598,8 +598,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="176" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="176" workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1082,10 +1082,10 @@
         <v>39</v>
       </c>
       <c r="H15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J15" t="s">
         <v>37</v>
@@ -1114,10 +1114,10 @@
         <v>39</v>
       </c>
       <c r="H16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J16" t="s">
         <v>37</v>
@@ -1146,10 +1146,10 @@
         <v>39</v>
       </c>
       <c r="H17" t="s">
+        <v>52</v>
+      </c>
+      <c r="I17" t="s">
         <v>53</v>
-      </c>
-      <c r="I17" t="s">
-        <v>54</v>
       </c>
       <c r="J17" t="s">
         <v>37</v>
@@ -1213,7 +1213,7 @@
         <v>49</v>
       </c>
       <c r="I19" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="J19" t="s">
         <v>37</v>
@@ -1245,7 +1245,7 @@
         <v>49</v>
       </c>
       <c r="I20" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="J20" t="s">
         <v>37</v>

--- a/data/misused_bar_graph_figures/nat_nanotechnol/log/annotation.xlsx
+++ b/data/misused_bar_graph_figures/nat_nanotechnol/log/annotation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tlin/Files/2023-2028-UC_Berkeley/_landry-lab/research-project/local/misused-bar-graphs/data/misused_bar_graph_figures/nat_nanotechnol/log/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBCEDAC2-C5E1-E146-8A05-863D6E36B603}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95B35A54-70C3-2F43-B285-2ABDFF7B26A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="11060" windowWidth="37620" windowHeight="10540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="500" windowWidth="18800" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="76">
   <si>
     <t>DOI</t>
   </si>
@@ -188,6 +188,66 @@
   </si>
   <si>
     <t>Radiance</t>
+  </si>
+  <si>
+    <t>Fig Index</t>
+  </si>
+  <si>
+    <t>10.1038:s41565-023-01346-x_log_fig1</t>
+  </si>
+  <si>
+    <t>10.1038:s41565-023-01346-x_log_fig2</t>
+  </si>
+  <si>
+    <t>10.1038:s41565-023-01346-x_log_fig3</t>
+  </si>
+  <si>
+    <t>10.1038:s41565-023-01404-4_log_fig1</t>
+  </si>
+  <si>
+    <t>10.1038:s41565-023-01404-4_log_fig2</t>
+  </si>
+  <si>
+    <t>10.1038:s41565-023-01404-4_log_fig3</t>
+  </si>
+  <si>
+    <t>10.1038:s41565-023-01404-4_log_fig4</t>
+  </si>
+  <si>
+    <t>10.1038:s41565-023-01447-7_log_fig1</t>
+  </si>
+  <si>
+    <t>10.1038:s41565-023-01447-7_log_fig2</t>
+  </si>
+  <si>
+    <t>10.1038:s41565-023-01447-7_log_fig3</t>
+  </si>
+  <si>
+    <t>10.1038:s41565-023-01447-7_log_fig4</t>
+  </si>
+  <si>
+    <t>10.1038:s41565-023-01447-7_log_fig5</t>
+  </si>
+  <si>
+    <t>10.1038:s41565-023-01447-7_log_fig6</t>
+  </si>
+  <si>
+    <t>10.1038:s41565-023-01545-6_log_fig1</t>
+  </si>
+  <si>
+    <t>10.1038:s41565-023-01545-6_log_fig2</t>
+  </si>
+  <si>
+    <t>10.1038:s41565-023-01545-6_log_fig3</t>
+  </si>
+  <si>
+    <t>10.1038:s41565-023-01548-3_log_fig1</t>
+  </si>
+  <si>
+    <t>10.1038:s41565-023-01548-3_log_fig2</t>
+  </si>
+  <si>
+    <t>10.1038:s41565-023-01548-3_log_fig3</t>
   </si>
 </sst>
 </file>
@@ -596,298 +656,322 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J20"/>
+  <dimension ref="A1:K20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="176" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="176" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="24.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="39.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="39.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="48" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" ht="48" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="K1" s="5" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
       <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" t="s">
-        <v>7</v>
-      </c>
       <c r="E2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" t="s">
         <v>18</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>38</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>39</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>40</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>41</v>
       </c>
-      <c r="J2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="K2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
       <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" t="s">
         <v>8</v>
       </c>
-      <c r="D3" t="s">
-        <v>7</v>
-      </c>
       <c r="E3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" t="s">
         <v>18</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>38</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>39</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>40</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>41</v>
       </c>
-      <c r="J3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="K3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B4" t="s">
         <v>4</v>
       </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
       <c r="C4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" t="s">
         <v>9</v>
       </c>
-      <c r="D4" t="s">
-        <v>7</v>
-      </c>
       <c r="E4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" t="s">
         <v>18</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>38</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>39</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>40</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>41</v>
       </c>
-      <c r="J4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="K4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B5" t="s">
         <v>10</v>
       </c>
-      <c r="B5" t="s">
-        <v>5</v>
-      </c>
       <c r="C5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" t="s">
         <v>6</v>
       </c>
-      <c r="D5" t="s">
-        <v>7</v>
-      </c>
       <c r="E5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" t="s">
         <v>19</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>38</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>39</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>42</v>
       </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>43</v>
       </c>
-      <c r="J5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+      <c r="K5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B6" t="s">
         <v>10</v>
       </c>
-      <c r="B6" t="s">
-        <v>5</v>
-      </c>
       <c r="C6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" t="s">
         <v>8</v>
       </c>
-      <c r="D6" t="s">
-        <v>7</v>
-      </c>
       <c r="E6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" t="s">
         <v>20</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>38</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>39</v>
       </c>
-      <c r="H6" t="s">
+      <c r="I6" t="s">
         <v>42</v>
       </c>
-      <c r="I6" t="s">
+      <c r="J6" t="s">
         <v>43</v>
       </c>
-      <c r="J6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+      <c r="K6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B7" t="s">
         <v>10</v>
       </c>
-      <c r="B7" t="s">
-        <v>5</v>
-      </c>
       <c r="C7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" t="s">
         <v>9</v>
       </c>
-      <c r="D7" t="s">
-        <v>7</v>
-      </c>
       <c r="E7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" t="s">
         <v>21</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>38</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>39</v>
       </c>
-      <c r="H7" t="s">
+      <c r="I7" t="s">
         <v>42</v>
       </c>
-      <c r="I7" t="s">
+      <c r="J7" t="s">
         <v>43</v>
       </c>
-      <c r="J7" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+      <c r="K7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B8" t="s">
         <v>10</v>
       </c>
-      <c r="B8" t="s">
-        <v>5</v>
-      </c>
       <c r="C8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" t="s">
         <v>11</v>
       </c>
-      <c r="D8" t="s">
-        <v>7</v>
-      </c>
       <c r="E8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8" t="s">
         <v>20</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>38</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
         <v>39</v>
       </c>
-      <c r="H8" t="s">
+      <c r="I8" t="s">
         <v>42</v>
       </c>
-      <c r="I8" t="s">
+      <c r="J8" t="s">
         <v>43</v>
       </c>
-      <c r="J8" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+      <c r="K8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B9" t="s">
         <v>12</v>
       </c>
-      <c r="B9" t="s">
-        <v>5</v>
-      </c>
       <c r="C9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" t="s">
         <v>6</v>
       </c>
-      <c r="D9" t="s">
-        <v>7</v>
-      </c>
       <c r="E9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F9" t="s">
         <v>22</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>44</v>
-      </c>
-      <c r="G9" t="s">
-        <v>45</v>
       </c>
       <c r="H9" t="s">
         <v>45</v>
@@ -896,30 +980,33 @@
         <v>45</v>
       </c>
       <c r="J9" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+        <v>45</v>
+      </c>
+      <c r="K9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B10" t="s">
         <v>12</v>
       </c>
-      <c r="B10" t="s">
-        <v>5</v>
-      </c>
       <c r="C10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" t="s">
         <v>8</v>
       </c>
-      <c r="D10" t="s">
-        <v>7</v>
-      </c>
       <c r="E10" t="s">
+        <v>7</v>
+      </c>
+      <c r="F10" t="s">
         <v>22</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>44</v>
-      </c>
-      <c r="G10" t="s">
-        <v>45</v>
       </c>
       <c r="H10" t="s">
         <v>45</v>
@@ -928,326 +1015,359 @@
         <v>45</v>
       </c>
       <c r="J10" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+        <v>45</v>
+      </c>
+      <c r="K10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B11" t="s">
         <v>12</v>
       </c>
-      <c r="B11" t="s">
-        <v>5</v>
-      </c>
       <c r="C11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" t="s">
         <v>9</v>
       </c>
-      <c r="D11" t="s">
-        <v>7</v>
-      </c>
       <c r="E11" t="s">
+        <v>7</v>
+      </c>
+      <c r="F11" t="s">
         <v>23</v>
       </c>
-      <c r="F11" t="s">
+      <c r="G11" t="s">
         <v>44</v>
       </c>
-      <c r="G11" t="s">
+      <c r="H11" t="s">
         <v>46</v>
       </c>
-      <c r="H11" t="s">
+      <c r="I11" t="s">
         <v>47</v>
       </c>
-      <c r="I11" t="s">
+      <c r="J11" t="s">
         <v>46</v>
       </c>
-      <c r="J11" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+      <c r="K11" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B12" t="s">
         <v>12</v>
       </c>
-      <c r="B12" t="s">
-        <v>5</v>
-      </c>
       <c r="C12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" t="s">
         <v>11</v>
       </c>
-      <c r="D12" t="s">
-        <v>7</v>
-      </c>
       <c r="E12" t="s">
+        <v>7</v>
+      </c>
+      <c r="F12" t="s">
         <v>24</v>
       </c>
-      <c r="F12" t="s">
+      <c r="G12" t="s">
         <v>44</v>
       </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
         <v>46</v>
       </c>
-      <c r="H12" t="s">
+      <c r="I12" t="s">
         <v>47</v>
       </c>
-      <c r="I12" t="s">
+      <c r="J12" t="s">
         <v>46</v>
       </c>
-      <c r="J12" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+      <c r="K12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B13" t="s">
         <v>12</v>
       </c>
-      <c r="B13" t="s">
-        <v>5</v>
-      </c>
       <c r="C13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" t="s">
         <v>13</v>
       </c>
-      <c r="D13" t="s">
-        <v>7</v>
-      </c>
       <c r="E13" t="s">
+        <v>7</v>
+      </c>
+      <c r="F13" t="s">
         <v>25</v>
       </c>
-      <c r="F13" t="s">
+      <c r="G13" t="s">
         <v>44</v>
       </c>
-      <c r="G13" t="s">
+      <c r="H13" t="s">
         <v>46</v>
       </c>
-      <c r="H13" t="s">
+      <c r="I13" t="s">
         <v>47</v>
       </c>
-      <c r="I13" t="s">
+      <c r="J13" t="s">
         <v>46</v>
       </c>
-      <c r="J13" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+      <c r="K13" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B14" t="s">
         <v>12</v>
       </c>
-      <c r="B14" t="s">
-        <v>5</v>
-      </c>
       <c r="C14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" t="s">
         <v>14</v>
       </c>
-      <c r="D14" t="s">
-        <v>7</v>
-      </c>
-      <c r="E14" s="3" t="s">
+      <c r="E14" t="s">
+        <v>7</v>
+      </c>
+      <c r="F14" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="F14" t="s">
+      <c r="G14" t="s">
         <v>44</v>
       </c>
-      <c r="G14" t="s">
+      <c r="H14" t="s">
         <v>46</v>
       </c>
-      <c r="H14" t="s">
+      <c r="I14" t="s">
         <v>47</v>
       </c>
-      <c r="I14" t="s">
+      <c r="J14" t="s">
         <v>46</v>
       </c>
-      <c r="J14" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
+      <c r="K14" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B15" t="s">
         <v>15</v>
       </c>
-      <c r="B15" t="s">
-        <v>5</v>
-      </c>
       <c r="C15" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" t="s">
         <v>6</v>
       </c>
-      <c r="D15" t="s">
-        <v>7</v>
-      </c>
       <c r="E15" t="s">
+        <v>7</v>
+      </c>
+      <c r="F15" t="s">
         <v>27</v>
       </c>
-      <c r="F15" t="s">
+      <c r="G15" t="s">
         <v>38</v>
       </c>
-      <c r="G15" t="s">
+      <c r="H15" t="s">
         <v>39</v>
-      </c>
-      <c r="H15" t="s">
-        <v>54</v>
       </c>
       <c r="I15" t="s">
         <v>54</v>
       </c>
       <c r="J15" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
+        <v>54</v>
+      </c>
+      <c r="K15" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B16" t="s">
         <v>15</v>
       </c>
-      <c r="B16" t="s">
-        <v>5</v>
-      </c>
       <c r="C16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" t="s">
         <v>8</v>
       </c>
-      <c r="D16" t="s">
-        <v>7</v>
-      </c>
       <c r="E16" t="s">
+        <v>7</v>
+      </c>
+      <c r="F16" t="s">
         <v>28</v>
       </c>
-      <c r="F16" t="s">
+      <c r="G16" t="s">
         <v>38</v>
       </c>
-      <c r="G16" t="s">
+      <c r="H16" t="s">
         <v>39</v>
-      </c>
-      <c r="H16" t="s">
-        <v>51</v>
       </c>
       <c r="I16" t="s">
         <v>51</v>
       </c>
       <c r="J16" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
+        <v>51</v>
+      </c>
+      <c r="K16" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B17" t="s">
         <v>15</v>
       </c>
-      <c r="B17" t="s">
-        <v>5</v>
-      </c>
       <c r="C17" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" t="s">
         <v>9</v>
       </c>
-      <c r="D17" t="s">
-        <v>7</v>
-      </c>
       <c r="E17" t="s">
+        <v>7</v>
+      </c>
+      <c r="F17" t="s">
         <v>29</v>
       </c>
-      <c r="F17" t="s">
+      <c r="G17" t="s">
         <v>38</v>
       </c>
-      <c r="G17" t="s">
+      <c r="H17" t="s">
         <v>39</v>
       </c>
-      <c r="H17" t="s">
+      <c r="I17" t="s">
         <v>52</v>
       </c>
-      <c r="I17" t="s">
+      <c r="J17" t="s">
         <v>53</v>
       </c>
-      <c r="J17" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
+      <c r="K17" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B18" t="s">
         <v>16</v>
       </c>
-      <c r="B18" t="s">
-        <v>5</v>
-      </c>
       <c r="C18" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18" t="s">
         <v>6</v>
       </c>
-      <c r="D18" t="s">
-        <v>7</v>
-      </c>
       <c r="E18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F18" t="s">
         <v>30</v>
       </c>
-      <c r="F18" t="s">
+      <c r="G18" t="s">
         <v>44</v>
       </c>
-      <c r="G18" t="s">
+      <c r="H18" t="s">
         <v>48</v>
       </c>
-      <c r="H18" t="s">
+      <c r="I18" t="s">
         <v>49</v>
       </c>
-      <c r="I18" t="s">
+      <c r="J18" t="s">
         <v>50</v>
       </c>
-      <c r="J18" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
+      <c r="K18" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B19" t="s">
         <v>16</v>
       </c>
-      <c r="B19" t="s">
-        <v>5</v>
-      </c>
       <c r="C19" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19" t="s">
         <v>8</v>
       </c>
-      <c r="D19" t="s">
-        <v>7</v>
-      </c>
       <c r="E19" t="s">
+        <v>7</v>
+      </c>
+      <c r="F19" t="s">
         <v>31</v>
       </c>
-      <c r="F19" t="s">
+      <c r="G19" t="s">
         <v>38</v>
       </c>
-      <c r="G19" t="s">
+      <c r="H19" t="s">
         <v>39</v>
       </c>
-      <c r="H19" t="s">
+      <c r="I19" t="s">
         <v>49</v>
       </c>
-      <c r="I19" t="s">
+      <c r="J19" t="s">
         <v>55</v>
       </c>
-      <c r="J19" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
+      <c r="K19" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B20" t="s">
         <v>16</v>
       </c>
-      <c r="B20" t="s">
-        <v>5</v>
-      </c>
       <c r="C20" t="s">
+        <v>5</v>
+      </c>
+      <c r="D20" t="s">
         <v>9</v>
       </c>
-      <c r="D20" t="s">
-        <v>7</v>
-      </c>
       <c r="E20" t="s">
+        <v>7</v>
+      </c>
+      <c r="F20" t="s">
         <v>31</v>
       </c>
-      <c r="F20" t="s">
+      <c r="G20" t="s">
         <v>38</v>
       </c>
-      <c r="G20" t="s">
+      <c r="H20" t="s">
         <v>39</v>
       </c>
-      <c r="H20" t="s">
+      <c r="I20" t="s">
         <v>49</v>
       </c>
-      <c r="I20" t="s">
+      <c r="J20" t="s">
         <v>55</v>
       </c>
-      <c r="J20" t="s">
+      <c r="K20" t="s">
         <v>37</v>
       </c>
     </row>

--- a/data/misused_bar_graph_figures/nat_nanotechnol/log/annotation.xlsx
+++ b/data/misused_bar_graph_figures/nat_nanotechnol/log/annotation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tlin/Files/2023-2028-UC_Berkeley/_landry-lab/research-project/local/misused-bar-graphs/data/misused_bar_graph_figures/nat_nanotechnol/log/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95B35A54-70C3-2F43-B285-2ABDFF7B26A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9999576-1B6E-0D46-B5FF-BFD3838C858F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="500" windowWidth="18800" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -178,9 +178,6 @@
     <t>Diffusivity</t>
   </si>
   <si>
-    <t>Elastic modulus</t>
-  </si>
-  <si>
     <t>Modulus</t>
   </si>
   <si>
@@ -248,6 +245,9 @@
   </si>
   <si>
     <t>10.1038:s41565-023-01548-3_log_fig3</t>
+  </si>
+  <si>
+    <t>Others</t>
   </si>
 </sst>
 </file>
@@ -658,8 +658,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="176" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="176" workbookViewId="0">
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -673,7 +673,7 @@
   <sheetData>
     <row r="1" spans="1:11" ht="48" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -708,7 +708,7 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -743,7 +743,7 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
@@ -778,7 +778,7 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
@@ -813,7 +813,7 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B5" t="s">
         <v>10</v>
@@ -848,7 +848,7 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B6" t="s">
         <v>10</v>
@@ -883,7 +883,7 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B7" t="s">
         <v>10</v>
@@ -918,7 +918,7 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B8" t="s">
         <v>10</v>
@@ -953,7 +953,7 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B9" t="s">
         <v>12</v>
@@ -988,7 +988,7 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B10" t="s">
         <v>12</v>
@@ -1023,7 +1023,7 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B11" t="s">
         <v>12</v>
@@ -1058,7 +1058,7 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B12" t="s">
         <v>12</v>
@@ -1093,7 +1093,7 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B13" t="s">
         <v>12</v>
@@ -1128,7 +1128,7 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B14" t="s">
         <v>12</v>
@@ -1163,7 +1163,7 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B15" t="s">
         <v>15</v>
@@ -1187,10 +1187,10 @@
         <v>39</v>
       </c>
       <c r="I15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J15" t="s">
-        <v>54</v>
+        <v>75</v>
       </c>
       <c r="K15" t="s">
         <v>37</v>
@@ -1198,7 +1198,7 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B16" t="s">
         <v>15</v>
@@ -1225,7 +1225,7 @@
         <v>51</v>
       </c>
       <c r="J16" t="s">
-        <v>51</v>
+        <v>75</v>
       </c>
       <c r="K16" t="s">
         <v>37</v>
@@ -1233,7 +1233,7 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B17" t="s">
         <v>15</v>
@@ -1260,7 +1260,7 @@
         <v>52</v>
       </c>
       <c r="J17" t="s">
-        <v>53</v>
+        <v>75</v>
       </c>
       <c r="K17" t="s">
         <v>37</v>
@@ -1268,7 +1268,7 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B18" t="s">
         <v>16</v>
@@ -1303,7 +1303,7 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B19" t="s">
         <v>16</v>
@@ -1330,7 +1330,7 @@
         <v>49</v>
       </c>
       <c r="J19" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K19" t="s">
         <v>37</v>
@@ -1338,7 +1338,7 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B20" t="s">
         <v>16</v>
@@ -1365,7 +1365,7 @@
         <v>49</v>
       </c>
       <c r="J20" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K20" t="s">
         <v>37</v>

--- a/data/misused_bar_graph_figures/nat_nanotechnol/log/annotation.xlsx
+++ b/data/misused_bar_graph_figures/nat_nanotechnol/log/annotation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tlin/Files/2023-2028-UC_Berkeley/_landry-lab/research-project/local/misused-bar-graphs/data/misused_bar_graph_figures/nat_nanotechnol/log/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9999576-1B6E-0D46-B5FF-BFD3838C858F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B1EF0B1-C9C0-8643-8F31-CFA1AF000DEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="500" windowWidth="18800" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -659,7 +659,7 @@
   <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" zoomScale="176" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1292,10 +1292,10 @@
         <v>48</v>
       </c>
       <c r="I18" t="s">
+        <v>50</v>
+      </c>
+      <c r="J18" t="s">
         <v>49</v>
-      </c>
-      <c r="J18" t="s">
-        <v>50</v>
       </c>
       <c r="K18" t="s">
         <v>37</v>
@@ -1327,10 +1327,10 @@
         <v>39</v>
       </c>
       <c r="I19" t="s">
+        <v>54</v>
+      </c>
+      <c r="J19" t="s">
         <v>49</v>
-      </c>
-      <c r="J19" t="s">
-        <v>54</v>
       </c>
       <c r="K19" t="s">
         <v>37</v>
@@ -1362,10 +1362,10 @@
         <v>39</v>
       </c>
       <c r="I20" t="s">
+        <v>54</v>
+      </c>
+      <c r="J20" t="s">
         <v>49</v>
-      </c>
-      <c r="J20" t="s">
-        <v>54</v>
       </c>
       <c r="K20" t="s">
         <v>37</v>

--- a/data/misused_bar_graph_figures/nat_nanotechnol/log/annotation.xlsx
+++ b/data/misused_bar_graph_figures/nat_nanotechnol/log/annotation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tlin/Files/2023-2028-UC_Berkeley/_landry-lab/research-project/local/misused-bar-graphs/data/misused_bar_graph_figures/nat_nanotechnol/log/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B1EF0B1-C9C0-8643-8F31-CFA1AF000DEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFECDA7F-D106-174C-B6DE-B5EC26E2E5E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="500" windowWidth="18800" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="73">
   <si>
     <t>DOI</t>
   </si>
@@ -173,15 +173,6 @@
   </si>
   <si>
     <t>Relative luminescence</t>
-  </si>
-  <si>
-    <t>Diffusivity</t>
-  </si>
-  <si>
-    <t>Modulus</t>
-  </si>
-  <si>
-    <t>Impedance</t>
   </si>
   <si>
     <t>Radiance</t>
@@ -658,8 +649,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="176" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="176" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15:I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -673,7 +664,7 @@
   <sheetData>
     <row r="1" spans="1:11" ht="48" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -708,7 +699,7 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -743,7 +734,7 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
@@ -778,7 +769,7 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
@@ -813,7 +804,7 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B5" t="s">
         <v>10</v>
@@ -848,7 +839,7 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B6" t="s">
         <v>10</v>
@@ -883,7 +874,7 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B7" t="s">
         <v>10</v>
@@ -918,7 +909,7 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B8" t="s">
         <v>10</v>
@@ -953,7 +944,7 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B9" t="s">
         <v>12</v>
@@ -988,7 +979,7 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B10" t="s">
         <v>12</v>
@@ -1023,7 +1014,7 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B11" t="s">
         <v>12</v>
@@ -1058,7 +1049,7 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B12" t="s">
         <v>12</v>
@@ -1093,7 +1084,7 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B13" t="s">
         <v>12</v>
@@ -1128,7 +1119,7 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B14" t="s">
         <v>12</v>
@@ -1163,7 +1154,7 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B15" t="s">
         <v>15</v>
@@ -1187,10 +1178,10 @@
         <v>39</v>
       </c>
       <c r="I15" t="s">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="J15" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="K15" t="s">
         <v>37</v>
@@ -1198,7 +1189,7 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B16" t="s">
         <v>15</v>
@@ -1222,10 +1213,10 @@
         <v>39</v>
       </c>
       <c r="I16" t="s">
-        <v>51</v>
+        <v>72</v>
       </c>
       <c r="J16" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="K16" t="s">
         <v>37</v>
@@ -1233,7 +1224,7 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B17" t="s">
         <v>15</v>
@@ -1257,10 +1248,10 @@
         <v>39</v>
       </c>
       <c r="I17" t="s">
-        <v>52</v>
+        <v>72</v>
       </c>
       <c r="J17" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="K17" t="s">
         <v>37</v>
@@ -1268,7 +1259,7 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B18" t="s">
         <v>16</v>
@@ -1303,7 +1294,7 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B19" t="s">
         <v>16</v>
@@ -1327,7 +1318,7 @@
         <v>39</v>
       </c>
       <c r="I19" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="J19" t="s">
         <v>49</v>
@@ -1338,7 +1329,7 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B20" t="s">
         <v>16</v>
@@ -1362,7 +1353,7 @@
         <v>39</v>
       </c>
       <c r="I20" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="J20" t="s">
         <v>49</v>

--- a/data/misused_bar_graph_figures/nat_nanotechnol/log/annotation.xlsx
+++ b/data/misused_bar_graph_figures/nat_nanotechnol/log/annotation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tlin/Files/2023-2028-UC_Berkeley/_landry-lab/research-project/local/misused-bar-graphs/data/misused_bar_graph_figures/nat_nanotechnol/log/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFECDA7F-D106-174C-B6DE-B5EC26E2E5E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EFA5594-02E3-E24E-88C5-BE4639588406}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="500" windowWidth="18800" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="71">
   <si>
     <t>DOI</t>
   </si>
@@ -140,12 +140,6 @@
   </si>
   <si>
     <t>Measured value</t>
-  </si>
-  <si>
-    <t>Colony count</t>
-  </si>
-  <si>
-    <t>Count</t>
   </si>
   <si>
     <t>Titer</t>
@@ -650,7 +644,7 @@
   <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G1" zoomScale="176" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15:I17"/>
+      <selection activeCell="I2" sqref="I2:J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -664,7 +658,7 @@
   <sheetData>
     <row r="1" spans="1:11" ht="48" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -699,7 +693,7 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -734,7 +728,7 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
@@ -769,7 +763,7 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
@@ -804,7 +798,7 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B5" t="s">
         <v>10</v>
@@ -828,10 +822,10 @@
         <v>39</v>
       </c>
       <c r="I5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K5" t="s">
         <v>37</v>
@@ -839,7 +833,7 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B6" t="s">
         <v>10</v>
@@ -863,10 +857,10 @@
         <v>39</v>
       </c>
       <c r="I6" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J6" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K6" t="s">
         <v>37</v>
@@ -874,7 +868,7 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B7" t="s">
         <v>10</v>
@@ -898,10 +892,10 @@
         <v>39</v>
       </c>
       <c r="I7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K7" t="s">
         <v>37</v>
@@ -909,7 +903,7 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B8" t="s">
         <v>10</v>
@@ -933,10 +927,10 @@
         <v>39</v>
       </c>
       <c r="I8" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K8" t="s">
         <v>37</v>
@@ -944,7 +938,7 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B9" t="s">
         <v>12</v>
@@ -962,16 +956,16 @@
         <v>22</v>
       </c>
       <c r="G9" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H9" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I9" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J9" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K9" t="s">
         <v>37</v>
@@ -979,7 +973,7 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B10" t="s">
         <v>12</v>
@@ -997,16 +991,16 @@
         <v>22</v>
       </c>
       <c r="G10" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H10" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I10" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J10" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K10" t="s">
         <v>37</v>
@@ -1014,7 +1008,7 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B11" t="s">
         <v>12</v>
@@ -1032,16 +1026,16 @@
         <v>23</v>
       </c>
       <c r="G11" t="s">
+        <v>42</v>
+      </c>
+      <c r="H11" t="s">
         <v>44</v>
       </c>
-      <c r="H11" t="s">
-        <v>46</v>
-      </c>
       <c r="I11" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J11" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K11" t="s">
         <v>37</v>
@@ -1049,7 +1043,7 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B12" t="s">
         <v>12</v>
@@ -1067,16 +1061,16 @@
         <v>24</v>
       </c>
       <c r="G12" t="s">
+        <v>42</v>
+      </c>
+      <c r="H12" t="s">
         <v>44</v>
       </c>
-      <c r="H12" t="s">
-        <v>46</v>
-      </c>
       <c r="I12" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J12" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K12" t="s">
         <v>37</v>
@@ -1084,7 +1078,7 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B13" t="s">
         <v>12</v>
@@ -1102,16 +1096,16 @@
         <v>25</v>
       </c>
       <c r="G13" t="s">
+        <v>42</v>
+      </c>
+      <c r="H13" t="s">
         <v>44</v>
       </c>
-      <c r="H13" t="s">
-        <v>46</v>
-      </c>
       <c r="I13" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J13" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K13" t="s">
         <v>37</v>
@@ -1119,7 +1113,7 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B14" t="s">
         <v>12</v>
@@ -1137,16 +1131,16 @@
         <v>26</v>
       </c>
       <c r="G14" t="s">
+        <v>42</v>
+      </c>
+      <c r="H14" t="s">
         <v>44</v>
       </c>
-      <c r="H14" t="s">
-        <v>46</v>
-      </c>
       <c r="I14" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J14" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K14" t="s">
         <v>37</v>
@@ -1154,7 +1148,7 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B15" t="s">
         <v>15</v>
@@ -1178,10 +1172,10 @@
         <v>39</v>
       </c>
       <c r="I15" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="J15" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="K15" t="s">
         <v>37</v>
@@ -1189,7 +1183,7 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B16" t="s">
         <v>15</v>
@@ -1213,10 +1207,10 @@
         <v>39</v>
       </c>
       <c r="I16" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="J16" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="K16" t="s">
         <v>37</v>
@@ -1224,7 +1218,7 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B17" t="s">
         <v>15</v>
@@ -1248,10 +1242,10 @@
         <v>39</v>
       </c>
       <c r="I17" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="J17" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="K17" t="s">
         <v>37</v>
@@ -1259,7 +1253,7 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B18" t="s">
         <v>16</v>
@@ -1277,16 +1271,16 @@
         <v>30</v>
       </c>
       <c r="G18" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H18" t="s">
+        <v>46</v>
+      </c>
+      <c r="I18" t="s">
         <v>48</v>
       </c>
-      <c r="I18" t="s">
-        <v>50</v>
-      </c>
       <c r="J18" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K18" t="s">
         <v>37</v>
@@ -1294,7 +1288,7 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B19" t="s">
         <v>16</v>
@@ -1318,10 +1312,10 @@
         <v>39</v>
       </c>
       <c r="I19" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J19" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K19" t="s">
         <v>37</v>
@@ -1329,7 +1323,7 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B20" t="s">
         <v>16</v>
@@ -1353,10 +1347,10 @@
         <v>39</v>
       </c>
       <c r="I20" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J20" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K20" t="s">
         <v>37</v>

--- a/data/misused_bar_graph_figures/nat_nanotechnol/log/annotation.xlsx
+++ b/data/misused_bar_graph_figures/nat_nanotechnol/log/annotation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tlin/Files/2023-2028-UC_Berkeley/_landry-lab/research-project/local/misused-bar-graphs/data/misused_bar_graph_figures/nat_nanotechnol/log/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EFA5594-02E3-E24E-88C5-BE4639588406}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F70EE863-93F5-5F4D-9FA3-FBED7FF8B09C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="500" windowWidth="18800" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19600" yWindow="500" windowWidth="18800" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="78">
   <si>
     <t>DOI</t>
   </si>
@@ -233,6 +233,27 @@
   </si>
   <si>
     <t>Others</t>
+  </si>
+  <si>
+    <t>10.1038/s41565-022-01296-w_log_fig1</t>
+  </si>
+  <si>
+    <t>10.1038/s41565-022-01296-w_log_fig2</t>
+  </si>
+  <si>
+    <t>10.1038/s41565-022-01296-w_log_fig3</t>
+  </si>
+  <si>
+    <t>10.1038/s41565-022-01296-w_log_fig4</t>
+  </si>
+  <si>
+    <t>10.1038/s41565-022-01296-w_log_fig5</t>
+  </si>
+  <si>
+    <t>10.1038/s41565-022-01296-w_log_fig6</t>
+  </si>
+  <si>
+    <t>10.1038/s41565-022-01296-w</t>
   </si>
 </sst>
 </file>
@@ -641,14 +662,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K20"/>
+  <dimension ref="A1:K26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="176" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2:J4"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="176" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3:J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="1" max="1" width="31.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="39.6640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.5" bestFit="1" customWidth="1"/>
@@ -693,10 +715,10 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>77</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
@@ -708,7 +730,7 @@
         <v>7</v>
       </c>
       <c r="F2" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="G2" t="s">
         <v>38</v>
@@ -728,10 +750,10 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>52</v>
+        <v>72</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>77</v>
       </c>
       <c r="C3" t="s">
         <v>5</v>
@@ -743,7 +765,7 @@
         <v>7</v>
       </c>
       <c r="F3" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="G3" t="s">
         <v>38</v>
@@ -763,10 +785,10 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>53</v>
+        <v>73</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>77</v>
       </c>
       <c r="C4" t="s">
         <v>5</v>
@@ -778,7 +800,7 @@
         <v>7</v>
       </c>
       <c r="F4" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="G4" t="s">
         <v>38</v>
@@ -798,22 +820,22 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>54</v>
+        <v>74</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>77</v>
       </c>
       <c r="C5" t="s">
         <v>5</v>
       </c>
       <c r="D5" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
         <v>7</v>
       </c>
       <c r="F5" t="s">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="G5" t="s">
         <v>38</v>
@@ -833,22 +855,22 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>77</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E6" t="s">
         <v>7</v>
       </c>
       <c r="F6" t="s">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="G6" t="s">
         <v>38</v>
@@ -868,22 +890,22 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>56</v>
+        <v>76</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>77</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="E7" t="s">
         <v>7</v>
       </c>
       <c r="F7" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="G7" t="s">
         <v>38</v>
@@ -903,22 +925,22 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C8" t="s">
         <v>5</v>
       </c>
       <c r="D8" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="E8" t="s">
         <v>7</v>
       </c>
       <c r="F8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G8" t="s">
         <v>38</v>
@@ -938,34 +960,34 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C9" t="s">
         <v>5</v>
       </c>
       <c r="D9" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E9" t="s">
         <v>7</v>
       </c>
       <c r="F9" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="G9" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="H9" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="I9" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="J9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K9" t="s">
         <v>37</v>
@@ -973,34 +995,34 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="B10" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C10" t="s">
         <v>5</v>
       </c>
       <c r="D10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E10" t="s">
         <v>7</v>
       </c>
       <c r="F10" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="G10" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="H10" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="I10" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="J10" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K10" t="s">
         <v>37</v>
@@ -1008,34 +1030,34 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="B11" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C11" t="s">
         <v>5</v>
       </c>
       <c r="D11" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E11" t="s">
         <v>7</v>
       </c>
       <c r="F11" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="G11" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="H11" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="I11" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="J11" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="K11" t="s">
         <v>37</v>
@@ -1043,34 +1065,34 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="B12" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C12" t="s">
         <v>5</v>
       </c>
       <c r="D12" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E12" t="s">
         <v>7</v>
       </c>
       <c r="F12" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="G12" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="H12" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="I12" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="J12" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="K12" t="s">
         <v>37</v>
@@ -1078,34 +1100,34 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="B13" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C13" t="s">
         <v>5</v>
       </c>
       <c r="D13" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E13" t="s">
         <v>7</v>
       </c>
       <c r="F13" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="G13" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="H13" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="I13" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="J13" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="K13" t="s">
         <v>37</v>
@@ -1113,34 +1135,34 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="B14" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C14" t="s">
         <v>5</v>
       </c>
       <c r="D14" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E14" t="s">
         <v>7</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>26</v>
+      <c r="F14" t="s">
+        <v>20</v>
       </c>
       <c r="G14" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="H14" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="I14" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="J14" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="K14" t="s">
         <v>37</v>
@@ -1148,10 +1170,10 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="B15" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C15" t="s">
         <v>5</v>
@@ -1163,19 +1185,19 @@
         <v>7</v>
       </c>
       <c r="F15" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="G15" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="H15" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="I15" t="s">
-        <v>70</v>
+        <v>43</v>
       </c>
       <c r="J15" t="s">
-        <v>70</v>
+        <v>43</v>
       </c>
       <c r="K15" t="s">
         <v>37</v>
@@ -1183,10 +1205,10 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="B16" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C16" t="s">
         <v>5</v>
@@ -1198,19 +1220,19 @@
         <v>7</v>
       </c>
       <c r="F16" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="G16" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="H16" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="I16" t="s">
-        <v>70</v>
+        <v>43</v>
       </c>
       <c r="J16" t="s">
-        <v>70</v>
+        <v>43</v>
       </c>
       <c r="K16" t="s">
         <v>37</v>
@@ -1218,10 +1240,10 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="B17" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C17" t="s">
         <v>5</v>
@@ -1233,19 +1255,19 @@
         <v>7</v>
       </c>
       <c r="F17" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="G17" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="H17" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="I17" t="s">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="J17" t="s">
-        <v>70</v>
+        <v>44</v>
       </c>
       <c r="K17" t="s">
         <v>37</v>
@@ -1253,34 +1275,34 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="B18" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C18" t="s">
         <v>5</v>
       </c>
       <c r="D18" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="E18" t="s">
         <v>7</v>
       </c>
       <c r="F18" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="G18" t="s">
         <v>42</v>
       </c>
       <c r="H18" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="I18" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="J18" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="K18" t="s">
         <v>37</v>
@@ -1288,34 +1310,34 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="B19" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C19" t="s">
         <v>5</v>
       </c>
       <c r="D19" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E19" t="s">
         <v>7</v>
       </c>
       <c r="F19" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="G19" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="H19" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="I19" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="J19" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="K19" t="s">
         <v>37</v>
@@ -1323,36 +1345,246 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B20" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20" t="s">
+        <v>5</v>
+      </c>
+      <c r="D20" t="s">
+        <v>14</v>
+      </c>
+      <c r="E20" t="s">
+        <v>7</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G20" t="s">
+        <v>42</v>
+      </c>
+      <c r="H20" t="s">
+        <v>44</v>
+      </c>
+      <c r="I20" t="s">
+        <v>45</v>
+      </c>
+      <c r="J20" t="s">
+        <v>44</v>
+      </c>
+      <c r="K20" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B21" t="s">
+        <v>15</v>
+      </c>
+      <c r="C21" t="s">
+        <v>5</v>
+      </c>
+      <c r="D21" t="s">
+        <v>6</v>
+      </c>
+      <c r="E21" t="s">
+        <v>7</v>
+      </c>
+      <c r="F21" t="s">
+        <v>27</v>
+      </c>
+      <c r="G21" t="s">
+        <v>38</v>
+      </c>
+      <c r="H21" t="s">
+        <v>39</v>
+      </c>
+      <c r="I21" t="s">
+        <v>70</v>
+      </c>
+      <c r="J21" t="s">
+        <v>70</v>
+      </c>
+      <c r="K21" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B22" t="s">
+        <v>15</v>
+      </c>
+      <c r="C22" t="s">
+        <v>5</v>
+      </c>
+      <c r="D22" t="s">
+        <v>8</v>
+      </c>
+      <c r="E22" t="s">
+        <v>7</v>
+      </c>
+      <c r="F22" t="s">
+        <v>28</v>
+      </c>
+      <c r="G22" t="s">
+        <v>38</v>
+      </c>
+      <c r="H22" t="s">
+        <v>39</v>
+      </c>
+      <c r="I22" t="s">
+        <v>70</v>
+      </c>
+      <c r="J22" t="s">
+        <v>70</v>
+      </c>
+      <c r="K22" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B23" t="s">
+        <v>15</v>
+      </c>
+      <c r="C23" t="s">
+        <v>5</v>
+      </c>
+      <c r="D23" t="s">
+        <v>9</v>
+      </c>
+      <c r="E23" t="s">
+        <v>7</v>
+      </c>
+      <c r="F23" t="s">
+        <v>29</v>
+      </c>
+      <c r="G23" t="s">
+        <v>38</v>
+      </c>
+      <c r="H23" t="s">
+        <v>39</v>
+      </c>
+      <c r="I23" t="s">
+        <v>70</v>
+      </c>
+      <c r="J23" t="s">
+        <v>70</v>
+      </c>
+      <c r="K23" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B24" t="s">
+        <v>16</v>
+      </c>
+      <c r="C24" t="s">
+        <v>5</v>
+      </c>
+      <c r="D24" t="s">
+        <v>6</v>
+      </c>
+      <c r="E24" t="s">
+        <v>7</v>
+      </c>
+      <c r="F24" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" t="s">
+        <v>42</v>
+      </c>
+      <c r="H24" t="s">
+        <v>46</v>
+      </c>
+      <c r="I24" t="s">
+        <v>48</v>
+      </c>
+      <c r="J24" t="s">
+        <v>47</v>
+      </c>
+      <c r="K24" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B25" t="s">
+        <v>16</v>
+      </c>
+      <c r="C25" t="s">
+        <v>5</v>
+      </c>
+      <c r="D25" t="s">
+        <v>8</v>
+      </c>
+      <c r="E25" t="s">
+        <v>7</v>
+      </c>
+      <c r="F25" t="s">
+        <v>31</v>
+      </c>
+      <c r="G25" t="s">
+        <v>38</v>
+      </c>
+      <c r="H25" t="s">
+        <v>39</v>
+      </c>
+      <c r="I25" t="s">
+        <v>49</v>
+      </c>
+      <c r="J25" t="s">
+        <v>47</v>
+      </c>
+      <c r="K25" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B26" t="s">
         <v>16</v>
       </c>
-      <c r="C20" t="s">
-        <v>5</v>
-      </c>
-      <c r="D20" t="s">
+      <c r="C26" t="s">
+        <v>5</v>
+      </c>
+      <c r="D26" t="s">
         <v>9</v>
       </c>
-      <c r="E20" t="s">
-        <v>7</v>
-      </c>
-      <c r="F20" t="s">
+      <c r="E26" t="s">
+        <v>7</v>
+      </c>
+      <c r="F26" t="s">
         <v>31</v>
       </c>
-      <c r="G20" t="s">
-        <v>38</v>
-      </c>
-      <c r="H20" t="s">
-        <v>39</v>
-      </c>
-      <c r="I20" t="s">
+      <c r="G26" t="s">
+        <v>38</v>
+      </c>
+      <c r="H26" t="s">
+        <v>39</v>
+      </c>
+      <c r="I26" t="s">
         <v>49</v>
       </c>
-      <c r="J20" t="s">
+      <c r="J26" t="s">
         <v>47</v>
       </c>
-      <c r="K20" t="s">
+      <c r="K26" t="s">
         <v>37</v>
       </c>
     </row>

--- a/data/misused_bar_graph_figures/nat_nanotechnol/log/annotation.xlsx
+++ b/data/misused_bar_graph_figures/nat_nanotechnol/log/annotation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tlin/Files/2023-2028-UC_Berkeley/_landry-lab/research-project/local/misused-bar-graphs/data/misused_bar_graph_figures/nat_nanotechnol/log/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F70EE863-93F5-5F4D-9FA3-FBED7FF8B09C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FEA3B79-546F-CA4B-91C6-18797554E270}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19600" yWindow="500" windowWidth="18800" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -73,9 +73,6 @@
     <t>10.1038:s41565-023-01548-3</t>
   </si>
   <si>
-    <t>Quantity</t>
-  </si>
-  <si>
     <t>BL counts (CFU)</t>
   </si>
   <si>
@@ -124,12 +121,6 @@
     <t>Measurement Type</t>
   </si>
   <si>
-    <t>Physical quantity I</t>
-  </si>
-  <si>
-    <t>Physical quantity II</t>
-  </si>
-  <si>
     <t>Log transformation</t>
   </si>
   <si>
@@ -254,6 +245,15 @@
   </si>
   <si>
     <t>10.1038/s41565-022-01296-w</t>
+  </si>
+  <si>
+    <t>Measurand</t>
+  </si>
+  <si>
+    <t>Measurand Level I</t>
+  </si>
+  <si>
+    <t>Measurand Level II</t>
   </si>
 </sst>
 </file>
@@ -665,7 +665,7 @@
   <dimension ref="A1:K26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" zoomScale="176" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3:J7"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -680,7 +680,7 @@
   <sheetData>
     <row r="1" spans="1:11" ht="48" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -695,30 +695,30 @@
         <v>3</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>17</v>
+        <v>75</v>
       </c>
       <c r="G1" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="K1" s="5" t="s">
         <v>33</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="K1" s="5" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
@@ -730,30 +730,30 @@
         <v>7</v>
       </c>
       <c r="F2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I2" t="s">
+        <v>37</v>
+      </c>
+      <c r="J2" t="s">
         <v>38</v>
       </c>
-      <c r="H2" t="s">
-        <v>39</v>
-      </c>
-      <c r="I2" t="s">
-        <v>40</v>
-      </c>
-      <c r="J2" t="s">
-        <v>41</v>
-      </c>
       <c r="K2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B3" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C3" t="s">
         <v>5</v>
@@ -765,30 +765,30 @@
         <v>7</v>
       </c>
       <c r="F3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H3" t="s">
+        <v>36</v>
+      </c>
+      <c r="I3" t="s">
+        <v>37</v>
+      </c>
+      <c r="J3" t="s">
         <v>38</v>
       </c>
-      <c r="H3" t="s">
-        <v>39</v>
-      </c>
-      <c r="I3" t="s">
-        <v>40</v>
-      </c>
-      <c r="J3" t="s">
-        <v>41</v>
-      </c>
       <c r="K3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B4" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C4" t="s">
         <v>5</v>
@@ -800,30 +800,30 @@
         <v>7</v>
       </c>
       <c r="F4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G4" t="s">
+        <v>35</v>
+      </c>
+      <c r="H4" t="s">
+        <v>36</v>
+      </c>
+      <c r="I4" t="s">
+        <v>37</v>
+      </c>
+      <c r="J4" t="s">
         <v>38</v>
       </c>
-      <c r="H4" t="s">
-        <v>39</v>
-      </c>
-      <c r="I4" t="s">
-        <v>40</v>
-      </c>
-      <c r="J4" t="s">
-        <v>41</v>
-      </c>
       <c r="K4" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B5" t="s">
         <v>74</v>
-      </c>
-      <c r="B5" t="s">
-        <v>77</v>
       </c>
       <c r="C5" t="s">
         <v>5</v>
@@ -835,30 +835,30 @@
         <v>7</v>
       </c>
       <c r="F5" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G5" t="s">
+        <v>35</v>
+      </c>
+      <c r="H5" t="s">
+        <v>36</v>
+      </c>
+      <c r="I5" t="s">
+        <v>37</v>
+      </c>
+      <c r="J5" t="s">
         <v>38</v>
       </c>
-      <c r="H5" t="s">
-        <v>39</v>
-      </c>
-      <c r="I5" t="s">
-        <v>40</v>
-      </c>
-      <c r="J5" t="s">
-        <v>41</v>
-      </c>
       <c r="K5" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B6" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -870,30 +870,30 @@
         <v>7</v>
       </c>
       <c r="F6" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G6" t="s">
+        <v>35</v>
+      </c>
+      <c r="H6" t="s">
+        <v>36</v>
+      </c>
+      <c r="I6" t="s">
+        <v>37</v>
+      </c>
+      <c r="J6" t="s">
         <v>38</v>
       </c>
-      <c r="H6" t="s">
-        <v>39</v>
-      </c>
-      <c r="I6" t="s">
-        <v>40</v>
-      </c>
-      <c r="J6" t="s">
-        <v>41</v>
-      </c>
       <c r="K6" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B7" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -905,27 +905,27 @@
         <v>7</v>
       </c>
       <c r="F7" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G7" t="s">
+        <v>35</v>
+      </c>
+      <c r="H7" t="s">
+        <v>36</v>
+      </c>
+      <c r="I7" t="s">
+        <v>37</v>
+      </c>
+      <c r="J7" t="s">
         <v>38</v>
       </c>
-      <c r="H7" t="s">
-        <v>39</v>
-      </c>
-      <c r="I7" t="s">
-        <v>40</v>
-      </c>
-      <c r="J7" t="s">
-        <v>41</v>
-      </c>
       <c r="K7" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B8" t="s">
         <v>4</v>
@@ -940,27 +940,27 @@
         <v>7</v>
       </c>
       <c r="F8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G8" t="s">
+        <v>35</v>
+      </c>
+      <c r="H8" t="s">
+        <v>36</v>
+      </c>
+      <c r="I8" t="s">
+        <v>37</v>
+      </c>
+      <c r="J8" t="s">
         <v>38</v>
       </c>
-      <c r="H8" t="s">
-        <v>39</v>
-      </c>
-      <c r="I8" t="s">
-        <v>40</v>
-      </c>
-      <c r="J8" t="s">
-        <v>41</v>
-      </c>
       <c r="K8" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B9" t="s">
         <v>4</v>
@@ -975,27 +975,27 @@
         <v>7</v>
       </c>
       <c r="F9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G9" t="s">
+        <v>35</v>
+      </c>
+      <c r="H9" t="s">
+        <v>36</v>
+      </c>
+      <c r="I9" t="s">
+        <v>37</v>
+      </c>
+      <c r="J9" t="s">
         <v>38</v>
       </c>
-      <c r="H9" t="s">
-        <v>39</v>
-      </c>
-      <c r="I9" t="s">
-        <v>40</v>
-      </c>
-      <c r="J9" t="s">
-        <v>41</v>
-      </c>
       <c r="K9" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B10" t="s">
         <v>4</v>
@@ -1010,27 +1010,27 @@
         <v>7</v>
       </c>
       <c r="F10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G10" t="s">
+        <v>35</v>
+      </c>
+      <c r="H10" t="s">
+        <v>36</v>
+      </c>
+      <c r="I10" t="s">
+        <v>37</v>
+      </c>
+      <c r="J10" t="s">
         <v>38</v>
       </c>
-      <c r="H10" t="s">
-        <v>39</v>
-      </c>
-      <c r="I10" t="s">
-        <v>40</v>
-      </c>
-      <c r="J10" t="s">
-        <v>41</v>
-      </c>
       <c r="K10" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B11" t="s">
         <v>10</v>
@@ -1045,27 +1045,27 @@
         <v>7</v>
       </c>
       <c r="F11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G11" t="s">
+        <v>35</v>
+      </c>
+      <c r="H11" t="s">
+        <v>36</v>
+      </c>
+      <c r="I11" t="s">
+        <v>37</v>
+      </c>
+      <c r="J11" t="s">
         <v>38</v>
       </c>
-      <c r="H11" t="s">
-        <v>39</v>
-      </c>
-      <c r="I11" t="s">
-        <v>40</v>
-      </c>
-      <c r="J11" t="s">
-        <v>41</v>
-      </c>
       <c r="K11" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B12" t="s">
         <v>10</v>
@@ -1080,27 +1080,27 @@
         <v>7</v>
       </c>
       <c r="F12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G12" t="s">
+        <v>35</v>
+      </c>
+      <c r="H12" t="s">
+        <v>36</v>
+      </c>
+      <c r="I12" t="s">
+        <v>37</v>
+      </c>
+      <c r="J12" t="s">
         <v>38</v>
       </c>
-      <c r="H12" t="s">
-        <v>39</v>
-      </c>
-      <c r="I12" t="s">
-        <v>40</v>
-      </c>
-      <c r="J12" t="s">
-        <v>41</v>
-      </c>
       <c r="K12" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B13" t="s">
         <v>10</v>
@@ -1115,27 +1115,27 @@
         <v>7</v>
       </c>
       <c r="F13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G13" t="s">
+        <v>35</v>
+      </c>
+      <c r="H13" t="s">
+        <v>36</v>
+      </c>
+      <c r="I13" t="s">
+        <v>37</v>
+      </c>
+      <c r="J13" t="s">
         <v>38</v>
       </c>
-      <c r="H13" t="s">
-        <v>39</v>
-      </c>
-      <c r="I13" t="s">
-        <v>40</v>
-      </c>
-      <c r="J13" t="s">
-        <v>41</v>
-      </c>
       <c r="K13" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B14" t="s">
         <v>10</v>
@@ -1150,27 +1150,27 @@
         <v>7</v>
       </c>
       <c r="F14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G14" t="s">
+        <v>35</v>
+      </c>
+      <c r="H14" t="s">
+        <v>36</v>
+      </c>
+      <c r="I14" t="s">
+        <v>37</v>
+      </c>
+      <c r="J14" t="s">
         <v>38</v>
       </c>
-      <c r="H14" t="s">
-        <v>39</v>
-      </c>
-      <c r="I14" t="s">
-        <v>40</v>
-      </c>
-      <c r="J14" t="s">
-        <v>41</v>
-      </c>
       <c r="K14" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B15" t="s">
         <v>12</v>
@@ -1185,27 +1185,27 @@
         <v>7</v>
       </c>
       <c r="F15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G15" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H15" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="I15" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="J15" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="K15" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B16" t="s">
         <v>12</v>
@@ -1220,27 +1220,27 @@
         <v>7</v>
       </c>
       <c r="F16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G16" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H16" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="I16" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="J16" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="K16" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B17" t="s">
         <v>12</v>
@@ -1255,27 +1255,27 @@
         <v>7</v>
       </c>
       <c r="F17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G17" t="s">
+        <v>39</v>
+      </c>
+      <c r="H17" t="s">
+        <v>41</v>
+      </c>
+      <c r="I17" t="s">
         <v>42</v>
       </c>
-      <c r="H17" t="s">
-        <v>44</v>
-      </c>
-      <c r="I17" t="s">
-        <v>45</v>
-      </c>
       <c r="J17" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="K17" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B18" t="s">
         <v>12</v>
@@ -1290,27 +1290,27 @@
         <v>7</v>
       </c>
       <c r="F18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G18" t="s">
+        <v>39</v>
+      </c>
+      <c r="H18" t="s">
+        <v>41</v>
+      </c>
+      <c r="I18" t="s">
         <v>42</v>
       </c>
-      <c r="H18" t="s">
-        <v>44</v>
-      </c>
-      <c r="I18" t="s">
-        <v>45</v>
-      </c>
       <c r="J18" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="K18" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B19" t="s">
         <v>12</v>
@@ -1325,27 +1325,27 @@
         <v>7</v>
       </c>
       <c r="F19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G19" t="s">
+        <v>39</v>
+      </c>
+      <c r="H19" t="s">
+        <v>41</v>
+      </c>
+      <c r="I19" t="s">
         <v>42</v>
       </c>
-      <c r="H19" t="s">
-        <v>44</v>
-      </c>
-      <c r="I19" t="s">
-        <v>45</v>
-      </c>
       <c r="J19" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="K19" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B20" t="s">
         <v>12</v>
@@ -1360,27 +1360,27 @@
         <v>7</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G20" t="s">
+        <v>39</v>
+      </c>
+      <c r="H20" t="s">
+        <v>41</v>
+      </c>
+      <c r="I20" t="s">
         <v>42</v>
       </c>
-      <c r="H20" t="s">
-        <v>44</v>
-      </c>
-      <c r="I20" t="s">
-        <v>45</v>
-      </c>
       <c r="J20" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="K20" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B21" t="s">
         <v>15</v>
@@ -1395,27 +1395,27 @@
         <v>7</v>
       </c>
       <c r="F21" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G21" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H21" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="I21" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="J21" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="K21" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B22" t="s">
         <v>15</v>
@@ -1430,27 +1430,27 @@
         <v>7</v>
       </c>
       <c r="F22" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G22" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H22" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="I22" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="J22" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="K22" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B23" t="s">
         <v>15</v>
@@ -1465,27 +1465,27 @@
         <v>7</v>
       </c>
       <c r="F23" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G23" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H23" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="I23" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="J23" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="K23" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B24" t="s">
         <v>16</v>
@@ -1500,27 +1500,27 @@
         <v>7</v>
       </c>
       <c r="F24" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G24" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H24" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="I24" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="J24" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="K24" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B25" t="s">
         <v>16</v>
@@ -1535,27 +1535,27 @@
         <v>7</v>
       </c>
       <c r="F25" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G25" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H25" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="I25" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="J25" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="K25" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B26" t="s">
         <v>16</v>
@@ -1570,22 +1570,22 @@
         <v>7</v>
       </c>
       <c r="F26" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G26" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H26" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="I26" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="J26" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="K26" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
